--- a/products.xlsx
+++ b/products.xlsx
@@ -2,10 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -445,13 +449,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col width="5" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="7.1640625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="18.6640625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="15.33203125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="12.6640625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="10.5" bestFit="1" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -494,213 +508,62 @@
           <t>Image Path</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Product Link</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-03-09</t>
+          <t>2023-03-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>Purple</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Miimall Compatible with Samsung Galaxy Z Fold 2 5G 2020 Leather Case Cover Hard PC Covered with Slim Leather Anti-Scratch Shook-Proof Bumper Case for Samsung Galaxy Z Fold 2 5G (Black)</t>
+          <t>Miimall Compatible Samsung Galaxy Z Fold 2 Case Hinge Protection, Folding Plating All-Inclusive Leather Bumper Cover Case+Tempered Glass Screen Protector Cases for Galaxy Z Fold 2 Luxury (Purple)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9,145</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>M.R.P.: 
-₹13,069
-₹13,069</t>
-        </is>
-      </c>
+          <t>5,199</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  &lt;tbody&gt;&lt;tr class="a-spacing-small po-brand"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Brand&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Miimall&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-color"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Colour&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Black&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-form_factor"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt; Form factor&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Bumper&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-material"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Material&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Leather&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-pattern"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Pattern&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Solid&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;   &lt;/tbody&gt;</t>
+          <t xml:space="preserve">  &lt;tbody&gt;&lt;tr class="a-spacing-small po-brand"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Brand&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Miimall&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-color"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Colour&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Purple&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-form_factor"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Form Factor&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Bumper&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-compatible_phone_models"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Compatible Phone Models&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Samsung&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-material"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Material&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Leather&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;   &lt;/tbody&gt;</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;div class="a-row a-spacing-base"&gt;        &lt;div class="a-row a-expander-container a-expander-extend-container"&gt; &lt;div class="a-row"&gt; &lt;div class="a-column a-span6"&gt; &lt;h1 class="a-size-medium a-spacing-small"&gt;Technical Details&lt;/h1&gt; &lt;/div&gt;  &lt;/div&gt; &lt;div aria-expanded="true" class="a-expander-content a-expander-extend-content"&gt;     &lt;div class="a-row a-expander-container a-expander-inline-container"&gt;       &lt;div aria-expanded="true" class="a-expander-content a-expander-section-content a-section-expander-inner"&gt; &lt;table id="productDetails_techSpec_section_1" class="a-keyvalue prodDetTable" role="presentation"&gt;     &lt;tbody&gt;&lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎12 x 1 x 10 cm; 30 Grams &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎20366B &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;  Special features  &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎Shock Absorbent &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;  Other display features  &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎Wireless &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;  Form factor &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎Bumper &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;  Colour  &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎Black &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎Miimall &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Country of Origin &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎USA &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎30 g &lt;/td&gt;  &lt;/tr&gt;    &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; </t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>/Users/iss/Downloads/scrapping/miimall_compatible_with_samsung_galaxy_z_fold_2_5g_2020_leather_case_cover_hard_pc_covered_with_slim_leather_anti-scratch_shook-proof_bumper_case_for_samsung_galaxy_z_fold_2_5g_(black)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2023-03-09</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>black</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Miimall Compatible with Samsung Galaxy Z Fold 2 5G 2020 Leather Case Cover Hard PC Covered with Slim Leather Anti-Scratch Shook-Proof Bumper Case for Samsung Galaxy Z Fold 2 5G (Black)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9,145</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>M.R.P.: 
-₹13,069
-₹13,069</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  &lt;tbody&gt;&lt;tr class="a-spacing-small po-brand"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Brand&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Miimall&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-color"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Colour&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Black&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-form_factor"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt; Form factor&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Bumper&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-material"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Material&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Leather&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-pattern"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Pattern&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Solid&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;   &lt;/tbody&gt;</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;div class="a-row a-spacing-base"&gt;        &lt;div class="a-row a-expander-container a-expander-extend-container"&gt; &lt;div class="a-row"&gt; &lt;div class="a-column a-span6"&gt; &lt;h1 class="a-size-medium a-spacing-small"&gt;Technical Details&lt;/h1&gt; &lt;/div&gt;  &lt;/div&gt; &lt;div aria-expanded="true" class="a-expander-content a-expander-extend-content"&gt;     &lt;div class="a-row a-expander-container a-expander-inline-container"&gt;       &lt;div aria-expanded="true" class="a-expander-content a-expander-section-content a-section-expander-inner"&gt; &lt;table id="productDetails_techSpec_section_1" class="a-keyvalue prodDetTable" role="presentation"&gt;     &lt;tbody&gt;&lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎12 x 1 x 10 cm; 30 Grams &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎20366B &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;  Special features  &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎Shock Absorbent &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;  Other display features  &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎Wireless &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;  Form factor &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎Bumper &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;  Colour  &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎Black &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎Miimall &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Country of Origin &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎USA &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎30 g &lt;/td&gt;  &lt;/tr&gt;    &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>/Users/iss/Downloads/scrapping/miimall_compatible_with_samsung_galaxy_z_fold_2_5g_2020_leather_case_cover_hard_pc_covered_with_slim_leather_anti-scratch_shook-proof_bumper_case_for_samsung_galaxy_z_fold_2_5g_(black)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2023-03-09</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>black</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Miimall Compatible with Samsung Galaxy Z Fold 2 5G 2020 Leather Case Cover Hard PC Covered with Slim Leather Anti-Scratch Shook-Proof Bumper Case for Samsung Galaxy Z Fold 2 5G (Black)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9,145</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>M.R.P.: 
-₹13,069
-₹13,069</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  &lt;tbody&gt;&lt;tr class="a-spacing-small po-brand"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Brand&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Miimall&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-color"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Colour&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Black&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-form_factor"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt; Form factor&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Bumper&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-material"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Material&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Leather&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-pattern"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Pattern&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Solid&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;   &lt;/tbody&gt;</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;div class="a-row a-spacing-base"&gt;        &lt;div class="a-row a-expander-container a-expander-extend-container"&gt; &lt;div class="a-row"&gt; &lt;div class="a-column a-span6"&gt; &lt;h1 class="a-size-medium a-spacing-small"&gt;Technical Details&lt;/h1&gt; &lt;/div&gt;  &lt;/div&gt; &lt;div aria-expanded="true" class="a-expander-content a-expander-extend-content"&gt;     &lt;div class="a-row a-expander-container a-expander-inline-container"&gt;       &lt;div aria-expanded="true" class="a-expander-content a-expander-section-content a-section-expander-inner"&gt; &lt;table id="productDetails_techSpec_section_1" class="a-keyvalue prodDetTable" role="presentation"&gt;     &lt;tbody&gt;&lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎12 x 1 x 10 cm; 30 Grams &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎20366B &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;  Special features  &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎Shock Absorbent &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;  Other display features  &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎Wireless &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;  Form factor &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎Bumper &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt;  Colour  &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎Black &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎Miimall &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Country of Origin &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎USA &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎30 g &lt;/td&gt;  &lt;/tr&gt;    &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>/Users/iss/Downloads/scrapping/miimall_compatible_with_samsung_galaxy_z_fold_2_5g_2020_leather_case_cover_hard_pc_covered_with_slim_leather_anti-scratch_shook-proof_bumper_case_for_samsung_galaxy_z_fold_2_5g_(black)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2023-03-09</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Blue-3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Miimall Compatible for Samsung Galaxy Z Fold 2 Case, Detachable Hinge Protection + Alloy Kickstand + Screen Cover Drop-Resistance Bumper Leather Case for Galaxy Z Fold 2 5G (Blue)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5,199</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  &lt;tbody&gt;&lt;tr class="a-spacing-small po-brand"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Brand&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Miimall&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-color"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Colour&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Blue-3&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-form_factor"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Form Factor&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Bumper&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-material"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Material&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Tempered Glass Thermoplastic Polyurethane Leather&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;  &lt;tr class="a-spacing-small po-special_feature"&gt; &lt;td class="a-span3"&gt;        &lt;span class="a-size-base a-text-bold"&gt;Special Feature&lt;/span&gt;      &lt;/td&gt; &lt;td class="a-span9"&gt;    &lt;span class="a-size-base po-break-word"&gt;Hinge Protection Detachable, Kickstand, Screen Cover&lt;/span&gt;   &lt;/td&gt; &lt;/tr&gt;   &lt;/tbody&gt;</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t xml:space="preserve"> &lt;div class="a-row a-spacing-base"&gt;        &lt;div class="a-row a-expander-container a-expander-extend-container"&gt; &lt;div class="a-row"&gt; &lt;div class="a-column a-span6"&gt; &lt;h1 class="a-size-medium a-spacing-small"&gt;Technical Details&lt;/h1&gt; &lt;/div&gt;  &lt;/div&gt; &lt;div aria-expanded="true" class="a-expander-content a-expander-extend-content"&gt;     &lt;div class="a-row a-expander-container a-expander-inline-container"&gt;       &lt;div aria-expanded="true" class="a-expander-content a-expander-section-content a-section-expander-inner"&gt; &lt;table id="productDetails_techSpec_section_1" class="a-keyvalue prodDetTable" role="presentation"&gt;     &lt;tbody&gt;&lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Brand &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
                 ‎Miimall &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
                 ‎Miimall &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Model &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎M20954-BLUE &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎20826P &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Product Dimensions &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
                 ‎12 x 1 x 10 cm; 30 Grams &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item model number &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎M20954-BLUE &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Special Features &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎Hinge Protection Detachable, Kickstand, Screen Cover &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Batteries Included &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎20826P &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Special Features &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Hinge Protection, Magnetic Folding Kickstand, HD Screen Cover, Anti-Slip, Shockproof &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Mounting Hardware &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Kickstand &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Standing screen display size &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎7.6 Inches &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Batteries Included &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
                 ‎No &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Batteries Required &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
                 ‎No &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Material &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
-                ‎Tempered Glass Thermoplastic Polyurethane Leather &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Form Factor &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
+                ‎Leather &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Form Factor &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
                 ‎Bumper &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Manufacturer &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
                 ‎Miimall &lt;/td&gt;  &lt;/tr&gt;    &lt;tr&gt;  &lt;th class="a-color-secondary a-size-base prodDetSectionEntry"&gt; Item Weight &lt;/th&gt;   &lt;td class="a-size-base prodDetAttrValue"&gt;
                 ‎30 g &lt;/td&gt;  &lt;/tr&gt;    &lt;/tbody&gt;&lt;/table&gt; &lt;/div&gt; &lt;/div&gt;  &lt;/div&gt; &lt;/div&gt;   &lt;/div&gt; &lt;div class="a-row a-spacing-base"&gt;      &lt;/div&gt; </t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>/Users/iss/Downloads/scrapping/miimall_compatible_for_samsung_galaxy_z_fold_2_case,_detachable_hinge_protection_+_alloy_kickstand_+_screen_cover_drop-resistance_bumper_leather_case_for_galaxy_z_fold_2_5g_(blue)</t>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>/Users/naveensingh/projects/CLS-Web-Scrapping/data/images/2023-03-11/miima-Purple-105055</t>
         </is>
       </c>
     </row>
